--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>725.77746</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2223.39609</v>
-      </c>
-      <c r="D2" t="n">
-        <v>151.74787</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.55213</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.43696</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3275.72543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>693.90183</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533.7655600000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>239.56383</v>
-      </c>
-      <c r="K2" t="n">
-        <v>43162.67076</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205.22237</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.8068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25.51607</v>
-      </c>
-      <c r="O2" t="n">
-        <v>980.58199</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1073.57017</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>227.26474</v>
-      </c>
-      <c r="R2" t="n">
-        <v>68.06461</v>
-      </c>
-      <c r="S2" t="n">
-        <v>148.68097</v>
-      </c>
-      <c r="T2" t="n">
-        <v>197.08738</v>
-      </c>
-      <c r="U2" t="n">
-        <v>244.05602</v>
-      </c>
-      <c r="V2" t="n">
-        <v>686.10151</v>
-      </c>
-      <c r="W2" t="n">
-        <v>361.31284</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2072.14876</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11041.82727</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>918.04437</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>566.24846</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>40.89462</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2115.92442</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3087.79835</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1158.59369</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>972.94597</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>578.64424</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>223.56308</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1510.37952</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>298.87401</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>298.67616</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>716.50082</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>642.97081</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4358.38614</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>94.66843</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>656.55957</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2338.10766</v>
-      </c>
-      <c r="D3" t="n">
-        <v>156.64259</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.26739</v>
-      </c>
-      <c r="F3" t="n">
-        <v>26.19089</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3310.92293</v>
-      </c>
-      <c r="H3" t="n">
-        <v>543.96626</v>
-      </c>
-      <c r="I3" t="n">
-        <v>576.47122</v>
-      </c>
-      <c r="J3" t="n">
-        <v>243.27199</v>
-      </c>
-      <c r="K3" t="n">
-        <v>45007.63746</v>
-      </c>
-      <c r="L3" t="n">
-        <v>226.53341</v>
-      </c>
-      <c r="M3" t="n">
-        <v>17.3434</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22.97771</v>
-      </c>
-      <c r="O3" t="n">
-        <v>936.45917</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1135.81167</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>217.84138</v>
-      </c>
-      <c r="R3" t="n">
-        <v>61.86007</v>
-      </c>
-      <c r="S3" t="n">
-        <v>157.88237</v>
-      </c>
-      <c r="T3" t="n">
-        <v>186.30905</v>
-      </c>
-      <c r="U3" t="n">
-        <v>220.26218</v>
-      </c>
-      <c r="V3" t="n">
-        <v>712.0606299999999</v>
-      </c>
-      <c r="W3" t="n">
-        <v>363.73126</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2281.83146</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12576.20883</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>885.27121</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>553.0784200000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>36.54017</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2250.08661</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3201.18057</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1062.60859</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1049.87425</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>604.61575</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>223.85032</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1383.05809</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>302.49677</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>286.82205</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>629.84277</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>648.2419599999999</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4499.85143</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>97.7016</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>627.67246</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2353.05694</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147.89983</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.32074</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.58243</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3322.90263</v>
-      </c>
-      <c r="H4" t="n">
-        <v>489.04268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>628.97813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>232.88912</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46071.10409</v>
-      </c>
-      <c r="L4" t="n">
-        <v>206.14718</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.13718</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.00176</v>
-      </c>
-      <c r="O4" t="n">
-        <v>921.27355</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1177.37725</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>215.98692</v>
-      </c>
-      <c r="R4" t="n">
-        <v>54.7905</v>
-      </c>
-      <c r="S4" t="n">
-        <v>137.8255</v>
-      </c>
-      <c r="T4" t="n">
-        <v>182.98056</v>
-      </c>
-      <c r="U4" t="n">
-        <v>216.42364</v>
-      </c>
-      <c r="V4" t="n">
-        <v>695.00315</v>
-      </c>
-      <c r="W4" t="n">
-        <v>381.36266</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2552.42326</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13625.23008</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>897.04455</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>512.9916899999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26.91752</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2084.3569</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3368.77982</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>963.15498</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1176.92721</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>611.35543</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>206.23778</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1322.87905</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>303.43643</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>293.33368</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>540.8817299999999</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>653.30312</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4438.9162</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>106.77895</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
